--- a/inst/extdata/Metadata_quali.xlsx
+++ b/inst/extdata/Metadata_quali.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpontoizeau\Documents\Sauvegarde\Stage Agir\qualitative.data\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpontoizeau\Documents\Sauvegarde\Stage Agir\data.qualitative\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="harvest" sheetId="12" r:id="rId12"/>
     <sheet name="bolting" sheetId="13" r:id="rId13"/>
     <sheet name="emergence" sheetId="14" r:id="rId14"/>
-    <sheet name="Feuil13" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -653,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -756,12 +755,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -867,6 +946,57 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,75 +1758,79 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="62" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="64" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1707,75 +1841,79 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="47" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1786,83 +1924,88 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="46"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C9" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1873,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,18 +2085,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2919,73 +3050,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2996,89 +3133,94 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="46"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="B4" s="20"/>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="B5" s="20"/>
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="B10" s="20"/>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B11" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C11" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,73 +3229,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B9" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3250,87 +3396,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="46"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C3" s="56"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B4" s="20"/>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B5" s="20"/>
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B6" s="20"/>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="B7" s="20"/>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B8" s="20"/>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B9" s="20"/>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="B10" s="20"/>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B11" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C11" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3339,106 +3490,111 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="46"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="62" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="64" t="s">
         <v>76</v>
       </c>
     </row>
